--- a/MigrationTool/MigrationTool/Files/Users.xlsx
+++ b/MigrationTool/MigrationTool/Files/Users.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rajesh\Projects\MigrationTool\Publish\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rajesh\Projects\MigrationTool\MigrationTool\MigrationTool\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96AD1A9-ADC9-41DE-A35A-17E2CEF2C3D7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551EF02E-8CBE-43B2-A1E3-6DCFECA78E8A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>FirstName</t>
   </si>
@@ -45,37 +45,20 @@
     <t>UserRole</t>
   </si>
   <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>admin1</t>
-  </si>
-  <si>
-    <t>Admin1</t>
-  </si>
-  <si>
-    <t>Rajesh1</t>
-  </si>
-  <si>
-    <t>rjaini@vmware.com1</t>
+    <t>CreatedDate</t>
+  </si>
+  <si>
+    <t>UserId</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -98,16 +81,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -386,63 +366,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{9AA87805-FC46-434B-84EE-646C242F1790}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>